--- a/TestCase Example.xlsx
+++ b/TestCase Example.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deloitte\Training\September 14 ServiceNow ATF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5235175A-79B3-4EB3-968B-067C923866EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABF1AD-B6DF-400D-B5DB-698C1D1163CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t>Test Case No</t>
   </si>
@@ -274,6 +276,92 @@
   </si>
   <si>
     <t>An error message should be displayed saying "email Id Doesn't exist</t>
+  </si>
+  <si>
+    <t>TC_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users is accessing
+currency convertort tool 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add to your site Button </t>
+  </si>
+  <si>
+    <t>This should lead to another page</t>
+  </si>
+  <si>
+    <t>1. Open the Currency control tool
+2. Click on the Add to your Site</t>
+  </si>
+  <si>
+    <t>TC_002</t>
+  </si>
+  <si>
+    <t>The amount is converted correctly</t>
+  </si>
+  <si>
+    <t>Convert button convert the 
+corresponding currency to the required currency</t>
+  </si>
+  <si>
+    <t>TC_003</t>
+  </si>
+  <si>
+    <t>Users is accessing the currency converter tool</t>
+  </si>
+  <si>
+    <t>Historic must show all the previous convertions</t>
+  </si>
+  <si>
+    <t>Users must be displayed their previous convertions and results</t>
+  </si>
+  <si>
+    <t>It is showing all the previous convertions and their results</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Open the currency control tool
+2. Click on Historic Key
+</t>
+  </si>
+  <si>
+    <t>1. Open the Currency control tool
+2. Fill in the Details and select 2 currencies
+3. verify if the currency is converted 
+successfully on clicking of convert button</t>
+  </si>
+  <si>
+    <t>Labels and controls are as per requirements</t>
+  </si>
+  <si>
+    <t>Check if the user is able to submit the form after filling all the details correctly</t>
+  </si>
+  <si>
+    <t>User is on the login page</t>
+  </si>
+  <si>
+    <t>1. Open the application
+2. Fill in all the details correctly
+3. Submit the form</t>
+  </si>
+  <si>
+    <t>The control names are as per requirement</t>
+  </si>
+  <si>
+    <t>When entering wrong email Id, the form should show that the email id doesn't exist</t>
+  </si>
+  <si>
+    <t>1. Open the Application
+2. Fill in all the details correctly except the email ID
+3. Fill in a non -existenet email id
+4. Submit the form</t>
+  </si>
+  <si>
+    <t>An error message saying "Email Id doesn't exist is displayed</t>
   </si>
 </sst>
 </file>
@@ -316,7 +404,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -369,11 +457,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -388,6 +491,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -706,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CCEED2B-D9B8-4F8C-A432-3FE5C20A7AFE}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:G2"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5863C4-8A0E-4491-98A3-8E2E2DA5FDB1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,4 +1253,244 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808F63D2-3354-4215-A106-6964B96684C9}">
+  <dimension ref="A1:G5"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="29.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BB612B-3898-4523-9C5B-27241AE8FF2A}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="43.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="27.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="27" x14ac:dyDescent="0.35">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCase Example.xlsx
+++ b/TestCase Example.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deloitte\Training\September 14 ServiceNow ATF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70ABF1AD-B6DF-400D-B5DB-698C1D1163CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D726D96-5C5A-4D37-8160-8A8B51731972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="3" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="176">
   <si>
     <t>Test Case No</t>
   </si>
@@ -362,6 +363,276 @@
   </si>
   <si>
     <t>An error message saying "Email Id doesn't exist is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Field Name </t>
+  </si>
+  <si>
+    <t>Field Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Choice Options </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read Only </t>
+  </si>
+  <si>
+    <t>Mandatory Fields</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conditions Based on Field Visibility </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date </t>
+  </si>
+  <si>
+    <t>Tested By</t>
+  </si>
+  <si>
+    <t>Short Description</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Incident</t>
+  </si>
+  <si>
+    <t>pick_list</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>RKW</t>
+  </si>
+  <si>
+    <t>Not Run</t>
+  </si>
+  <si>
+    <t>String (limit - 160)</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference </t>
+  </si>
+  <si>
+    <t>Fetch group with type "IT"</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Caller</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>SubCategory</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Service Offering</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Contact Type</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Urgency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assignment Group </t>
+  </si>
+  <si>
+    <t>Assigned To</t>
+  </si>
+  <si>
+    <t>Number(40)</t>
+  </si>
+  <si>
+    <t>Created by autonumbering</t>
+  </si>
+  <si>
+    <t>Fetched from pick_list OR written by the user</t>
+  </si>
+  <si>
+    <t>Fetched from the incident table</t>
+  </si>
+  <si>
+    <t>String (limit - 40)</t>
+  </si>
+  <si>
+    <t>Fetch fom the option dropdown</t>
+  </si>
+  <si>
+    <t>Fetch from the option dropdown</t>
+  </si>
+  <si>
+    <t>Automatically filled using Impact and Urgency</t>
+  </si>
+  <si>
+    <t>Integer (limit - 40)</t>
+  </si>
+  <si>
+    <t>Configuration Item</t>
+  </si>
+  <si>
+    <t>sys_user_list</t>
+  </si>
+  <si>
+    <t>cmdb_ci_list</t>
+  </si>
+  <si>
+    <t>service_offering_list</t>
+  </si>
+  <si>
+    <t>cmdb_ci_service_list</t>
+  </si>
+  <si>
+    <t>core_company_list</t>
+  </si>
+  <si>
+    <t>sys_user_group_list</t>
+  </si>
+  <si>
+    <t>Fetch from the cmdb_ci_service_list</t>
+  </si>
+  <si>
+    <t>Fetch from the sys_user_group_list</t>
+  </si>
+  <si>
+    <t>Fetch from service_offering_list</t>
+  </si>
+  <si>
+    <t>Fetch from cmdb_ci_list</t>
+  </si>
+  <si>
+    <t>Fetch from core_company_list</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>String (limit - 4000)</t>
+  </si>
+  <si>
+    <t>Written by the end user</t>
+  </si>
+  <si>
+    <t>Section 1</t>
+  </si>
+  <si>
+    <t>Section 2</t>
+  </si>
+  <si>
+    <t>Watch List</t>
+  </si>
+  <si>
+    <t>Additional Comments</t>
+  </si>
+  <si>
+    <t>Work Notes</t>
+  </si>
+  <si>
+    <t>Section 3</t>
+  </si>
+  <si>
+    <t>Section 4</t>
+  </si>
+  <si>
+    <t>Parent Incident</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Problem </t>
+  </si>
+  <si>
+    <t>Change Request</t>
+  </si>
+  <si>
+    <t>Caused by Change</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>Resolution Code</t>
+  </si>
+  <si>
+    <t>Resolution Notes</t>
+  </si>
+  <si>
+    <t>Resolved By</t>
+  </si>
+  <si>
+    <t>Resolved</t>
+  </si>
+  <si>
+    <t>glide_list</t>
+  </si>
+  <si>
+    <t>sys_user</t>
+  </si>
+  <si>
+    <t>journal_input</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>change_request</t>
+  </si>
+  <si>
+    <t>Boolean</t>
+  </si>
+  <si>
+    <t>glide_date_time</t>
+  </si>
+  <si>
+    <t>Fetched from sys_user</t>
+  </si>
+  <si>
+    <t>Added by User</t>
+  </si>
+  <si>
+    <t>Fetched from Incident table</t>
+  </si>
+  <si>
+    <t>Fetched from Problem table</t>
+  </si>
+  <si>
+    <t>Fetched from change_request table</t>
+  </si>
+  <si>
+    <t>Filled by the user</t>
+  </si>
+  <si>
+    <t>Fetched ftom the dropdown</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -390,7 +661,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -400,6 +671,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,7 +759,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -499,6 +782,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1384,7 +1682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3BB612B-3898-4523-9C5B-27241AE8FF2A}">
   <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1493,4 +1791,1151 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02819D3-7E27-41BA-8906-ABA76CF929E7}">
+  <dimension ref="A1:J40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="19" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" style="9" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" style="9" customWidth="1"/>
+    <col min="7" max="7" width="39.1796875" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" style="9" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11" style="9" customWidth="1"/>
+    <col min="11" max="16384" width="8.7265625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J3" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="12">
+        <v>44824</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="12">
+        <v>44825</v>
+      </c>
+      <c r="J6" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="12">
+        <v>44826</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="12">
+        <v>44827</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="12">
+        <v>44828</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="12">
+        <v>44829</v>
+      </c>
+      <c r="J10" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="12">
+        <v>44830</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="12">
+        <v>44831</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="12">
+        <v>44832</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="12">
+        <v>44833</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="F15" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="12">
+        <v>44834</v>
+      </c>
+      <c r="J15" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="12">
+        <v>44835</v>
+      </c>
+      <c r="J16" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>106</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="12">
+        <v>44836</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J18" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J23" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H24" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="H29" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J30" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J32" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A36" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A37" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A38" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="H38" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J38" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="H40" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="12">
+        <v>44823</v>
+      </c>
+      <c r="J40" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A21:J21"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="A34:J34"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/TestCase Example.xlsx
+++ b/TestCase Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deloitte\Training\September 14 ServiceNow ATF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D726D96-5C5A-4D37-8160-8A8B51731972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD1EE9-0E7D-4DE7-9F2C-586373F84A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="4" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
   <si>
     <t>Test Case No</t>
   </si>
@@ -633,6 +634,111 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>User ID</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Last Name</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Password Needs Reset</t>
+  </si>
+  <si>
+    <t>Locked Out</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>Web Service Access only</t>
+  </si>
+  <si>
+    <t>Internal Integration User</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>Calendar Integration</t>
+  </si>
+  <si>
+    <t>Time Zone</t>
+  </si>
+  <si>
+    <t>Date Format</t>
+  </si>
+  <si>
+    <t>Business Phone</t>
+  </si>
+  <si>
+    <t>Mobile Phone</t>
+  </si>
+  <si>
+    <t>Photo</t>
+  </si>
+  <si>
+    <t>ph_number</t>
+  </si>
+  <si>
+    <t>user_image</t>
+  </si>
+  <si>
+    <t>cmn_department_list</t>
+  </si>
+  <si>
+    <t>None, English</t>
+  </si>
+  <si>
+    <t>None, Outlook</t>
+  </si>
+  <si>
+    <t>ALL TIME ZONES</t>
+  </si>
+  <si>
+    <t>MM-DD-YYYY,
+DD-MM-YYYY,
+DD.MM.YYYY,
+YYYY-MM-DD</t>
+  </si>
+  <si>
+    <t>Referenced from Pick_list table</t>
+  </si>
+  <si>
+    <t>Referenced from cmn_department_list</t>
+  </si>
+  <si>
+    <t>Referenced from core_company_list</t>
+  </si>
+  <si>
+    <t>Active on load</t>
+  </si>
+  <si>
+    <t>None by default</t>
+  </si>
+  <si>
+    <t>Outlook by default</t>
+  </si>
+  <si>
+    <t>System(US/Easter) by default</t>
+  </si>
+  <si>
+    <t>System(yyyy-MM-dd) by default</t>
   </si>
 </sst>
 </file>
@@ -661,7 +767,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,6 +789,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -759,7 +877,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -786,9 +904,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -796,6 +911,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1797,8 +1924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E02819D3-7E27-41BA-8906-ABA76CF929E7}">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1817,18 +1944,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="13" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="10"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -1863,562 +1990,562 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="11" t="s">
+      <c r="C3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="H3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I3" s="12">
+      <c r="H3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="11">
         <v>44823</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4" s="13" t="b">
+      <c r="D4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>124</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I4" s="12">
+      <c r="H4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="11">
         <v>44823</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D5" s="13" t="s">
+      <c r="C5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="11" t="s">
+      <c r="E5" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="H5" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="H5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="11">
         <v>44824</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D6" s="13" t="s">
+      <c r="C6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="11" t="s">
+      <c r="E6" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="12">
+      <c r="H6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="11">
         <v>44825</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E7" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F7" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G7" s="11" t="s">
+      <c r="D7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H7" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I7" s="12">
+      <c r="H7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="11">
         <v>44826</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F8" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="11" t="s">
+      <c r="D8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="H8" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I8" s="12">
+      <c r="H8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="11">
         <v>44827</v>
       </c>
-      <c r="J8" s="11" t="s">
+      <c r="J8" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="D9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G9" s="11" t="s">
+      <c r="D9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="H9" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I9" s="12">
+      <c r="H9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="11">
         <v>44828</v>
       </c>
-      <c r="J9" s="11" t="s">
+      <c r="J9" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="D10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F10" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="11" t="s">
+      <c r="D10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="H10" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I10" s="12">
+      <c r="H10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="11">
         <v>44829</v>
       </c>
-      <c r="J10" s="11" t="s">
+      <c r="J10" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D11" s="13" t="s">
+      <c r="C11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F11" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G11" s="11" t="s">
+      <c r="E11" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H11" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I11" s="12">
+      <c r="H11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="11">
         <v>44830</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D12" s="13" t="s">
+      <c r="C12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F12" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G12" s="11" t="s">
+      <c r="E12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I12" s="12">
+      <c r="H12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="11">
         <v>44831</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D13" s="13" t="s">
+      <c r="C13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F13" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="11" t="s">
+      <c r="E13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H13" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I13" s="12">
+      <c r="H13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="11">
         <v>44832</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="J13" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D14" s="13" t="s">
+      <c r="C14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F14" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="11" t="s">
+      <c r="E14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I14" s="12">
+      <c r="H14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="11">
         <v>44833</v>
       </c>
-      <c r="J14" s="11" t="s">
+      <c r="J14" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="C15" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E15" s="13" t="s">
+      <c r="C15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="F15" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="11" t="s">
+      <c r="F15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="H15" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I15" s="12">
+      <c r="H15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="11">
         <v>44834</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="J15" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G16" s="11" t="s">
+      <c r="D16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>138</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I16" s="12">
+      <c r="H16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="11">
         <v>44835</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="D17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="11" t="s">
+      <c r="D17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="H17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="12">
+      <c r="H17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="11">
         <v>44836</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="J17" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F18" s="13" t="b">
+      <c r="D18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="12" t="b">
         <v>1</v>
       </c>
-      <c r="G18" s="11" t="s">
+      <c r="G18" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I18" s="12">
+      <c r="H18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="11">
         <v>44823</v>
       </c>
-      <c r="J18" s="11" t="s">
+      <c r="J18" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="11" t="b">
-        <v>0</v>
-      </c>
-      <c r="G19" s="11" t="s">
+      <c r="C19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I19" s="12">
+      <c r="H19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="11">
         <v>44823</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="J19" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
@@ -2453,114 +2580,114 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="11" t="s">
+      <c r="D23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H23" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="12">
+      <c r="H23" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23" s="11">
         <v>44823</v>
       </c>
-      <c r="J23" s="11" t="s">
+      <c r="J23" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="11" t="s">
+      <c r="C24" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H24" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="12">
+      <c r="H24" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I24" s="11">
         <v>44823</v>
       </c>
-      <c r="J24" s="11" t="s">
+      <c r="J24" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="11" t="s">
+      <c r="C25" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H25" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="12">
+      <c r="H25" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I25" s="11">
         <v>44823</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="J25" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="13"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -2595,146 +2722,146 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C29" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G29" s="11" t="s">
+      <c r="C29" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="10" t="s">
         <v>170</v>
       </c>
-      <c r="H29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="12">
+      <c r="H29" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I29" s="11">
         <v>44823</v>
       </c>
-      <c r="J29" s="11" t="s">
+      <c r="J29" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="B30" s="11" t="s">
+      <c r="B30" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C30" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F30" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G30" s="11" t="s">
+      <c r="C30" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G30" s="10" t="s">
         <v>171</v>
       </c>
-      <c r="H30" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I30" s="12">
+      <c r="H30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I30" s="11">
         <v>44823</v>
       </c>
-      <c r="J30" s="11" t="s">
+      <c r="J30" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B31" s="11" t="s">
+      <c r="B31" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F31" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G31" s="11" t="s">
+      <c r="D31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H31" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I31" s="12">
+      <c r="H31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I31" s="11">
         <v>44823</v>
       </c>
-      <c r="J31" s="11" t="s">
+      <c r="J31" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="D32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F32" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G32" s="11" t="s">
+      <c r="D32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="H32" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I32" s="12">
+      <c r="H32" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I32" s="11">
         <v>44823</v>
       </c>
-      <c r="J32" s="11" t="s">
+      <c r="J32" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -2769,162 +2896,162 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A36" s="11" t="s">
+      <c r="A36" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E36" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F36" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G36" s="11" t="s">
+      <c r="C36" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G36" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H36" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I36" s="12">
+      <c r="H36" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I36" s="11">
         <v>44823</v>
       </c>
-      <c r="J36" s="11" t="s">
+      <c r="J36" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>157</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="C37" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G37" s="11" t="s">
+      <c r="C37" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H37" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="12">
+      <c r="H37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I37" s="11">
         <v>44823</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="J37" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="11" t="s">
+      <c r="A38" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="C38" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="D38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G38" s="11" t="s">
+      <c r="C38" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="H38" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I38" s="12">
+      <c r="H38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I38" s="11">
         <v>44823</v>
       </c>
-      <c r="J38" s="11" t="s">
+      <c r="J38" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C39" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="D39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F39" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G39" s="11" t="s">
+      <c r="D39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="H39" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I39" s="12">
+      <c r="H39" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="11">
         <v>44823</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="J39" s="10" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A40" s="11" t="s">
+      <c r="A40" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="B40" s="11" t="s">
+      <c r="B40" s="10" t="s">
         <v>167</v>
       </c>
-      <c r="C40" s="11" t="s">
+      <c r="C40" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="D40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="G40" s="11" t="s">
+      <c r="D40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H40" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="12">
+      <c r="H40" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="11">
         <v>44823</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="10" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2938,4 +3065,723 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B85D52-90ED-4479-BCEB-7ED7A4BACADD}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="21.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+    <col min="7" max="7" width="33.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="9"/>
+    </row>
+    <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="9"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="E16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="E17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="E18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="E19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F21" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I21" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="11">
+        <v>44823</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestCase Example.xlsx
+++ b/TestCase Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Deloitte\Training\September 14 ServiceNow ATF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD1EE9-0E7D-4DE7-9F2C-586373F84A35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB465B60-7FC4-4D52-B139-678D9A7F75D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="5" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{6370C529-90EB-4D35-86D6-90DF1D59F31F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="245">
   <si>
     <t>Test Case No</t>
   </si>
@@ -739,6 +741,141 @@
   </si>
   <si>
     <t>System(yyyy-MM-dd) by default</t>
+  </si>
+  <si>
+    <t>Requested For</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location </t>
+  </si>
+  <si>
+    <t>Due Date</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>Special Instruction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opened </t>
+  </si>
+  <si>
+    <t>Opened By</t>
+  </si>
+  <si>
+    <t>Approval</t>
+  </si>
+  <si>
+    <t>Request State</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>cmn_location_list</t>
+  </si>
+  <si>
+    <t>None,
+Pending Approval
+Approved,
+Closed Complete,
+Closed Incomplete,
+Closed Cancelled,
+Close Rejected,
+Close Skipped</t>
+  </si>
+  <si>
+    <t>Not Yet Requested,
+Requested,
+Approval,
+Rejected</t>
+  </si>
+  <si>
+    <t>AutoNumbering</t>
+  </si>
+  <si>
+    <t>Fetched from sys_user_list</t>
+  </si>
+  <si>
+    <t>Fetched from cmn_location_list</t>
+  </si>
+  <si>
+    <t>Fetched from pick_list</t>
+  </si>
+  <si>
+    <t>Configuration Items</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type </t>
+  </si>
+  <si>
+    <t>Conflict Status</t>
+  </si>
+  <si>
+    <t>Conflict Last Run</t>
+  </si>
+  <si>
+    <t>Assignment Group</t>
+  </si>
+  <si>
+    <t>String(limit - 40)</t>
+  </si>
+  <si>
+    <t>String(limit - 160)</t>
+  </si>
+  <si>
+    <t>String(limit - 4000)</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>String(limit -40)</t>
+  </si>
+  <si>
+    <t>chg_model_list</t>
+  </si>
+  <si>
+    <t>Other,
+None,
+Hardware,
+Software,
+Service,
+System Software,
+Application Software
+Network
+Telecom</t>
+  </si>
+  <si>
+    <t>AutoNumbered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None,
+1 - Critical,
+2 - High,
+3 - Moderate,
+4 - Low
+</t>
+  </si>
+  <si>
+    <t>High,
+Moderate,
+Low</t>
+  </si>
+  <si>
+    <t>1 - High,
+2 - Medium
+3 - Low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New,
+Asses,
+Cancelled
+</t>
   </si>
 </sst>
 </file>
@@ -805,7 +942,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -873,11 +1010,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -913,9 +1153,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,6 +1161,40 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,7 +1513,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1405,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5863C4-8A0E-4491-98A3-8E2E2DA5FDB1}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1684,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{808F63D2-3354-4215-A106-6964B96684C9}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1917,6 +2188,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1944,18 +2216,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
@@ -2534,18 +2806,18 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="13"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="16"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
@@ -2676,18 +2948,18 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="16" t="s">
         <v>150</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="13"/>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="13"/>
-      <c r="H27" s="13"/>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
@@ -2850,18 +3122,18 @@
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
-      <c r="G34" s="13"/>
-      <c r="H34" s="13"/>
-      <c r="I34" s="13"/>
-      <c r="J34" s="13"/>
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="16"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
@@ -3071,8 +3343,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60B85D52-90ED-4479-BCEB-7ED7A4BACADD}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3091,18 +3363,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="16" t="s">
         <v>145</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="9"/>
     </row>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.35">
@@ -3567,7 +3839,7 @@
       <c r="D16" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="E16" s="14" t="b">
+      <c r="E16" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F16" s="10" t="b">
@@ -3599,7 +3871,7 @@
       <c r="D17" s="10" t="s">
         <v>199</v>
       </c>
-      <c r="E17" s="14" t="b">
+      <c r="E17" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F17" s="10" t="b">
@@ -3628,10 +3900,10 @@
       <c r="C18" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="15" t="s">
         <v>200</v>
       </c>
-      <c r="E18" s="14" t="b">
+      <c r="E18" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F18" s="10" t="b">
@@ -3660,10 +3932,10 @@
       <c r="C19" s="10" t="s">
         <v>175</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="E19" s="14" t="b">
+      <c r="E19" s="13" t="b">
         <v>1</v>
       </c>
       <c r="F19" s="10" t="b">
@@ -3783,5 +4055,1164 @@
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF28D04D-9043-442A-89F8-69ABAB8B00BA}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>213</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>222</v>
+      </c>
+      <c r="E13" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="130.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="E14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1A2FB76-A5FE-49EA-A7A8-B0633AB7D768}">
+  <dimension ref="A1:J23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="37.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="24"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="J2" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="E3" s="19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="18" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="21">
+        <v>44824</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E4" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I4" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="145" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="E5" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I5" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I6" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E7" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I7" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I8" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="87" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I9" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E10" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I10" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>233</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E12" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I12" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="F13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I13" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E14" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I14" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E15" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="58" x14ac:dyDescent="0.35">
+      <c r="A16" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I16" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E17" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I17" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I18" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E19" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J19" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E20" s="13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="I20" s="11">
+        <v>44824</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A22:J22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>